--- a/public/plantilla_asignatura.xlsx
+++ b/public/plantilla_asignatura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FacultySystem-Front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378C6A71-CD2D-4489-A271-33DE8709FD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E99AB63-AAC1-400F-97B5-ED4618493E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="4755" windowWidth="28800" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="3585" windowWidth="25035" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -34,27 +34,18 @@
     <t>name</t>
   </si>
   <si>
-    <t>costCenterId</t>
-  </si>
-  <si>
     <t>BIO420</t>
   </si>
   <si>
     <t>BIOMECÁNICA</t>
   </si>
   <si>
-    <t>1231564eee</t>
-  </si>
-  <si>
     <t>BIO452</t>
   </si>
   <si>
     <t>MICROBIOLOGÍA APLICADA</t>
   </si>
   <si>
-    <t>3212dfsderwe</t>
-  </si>
-  <si>
     <t>COM103</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>ROOM</t>
   </si>
   <si>
-    <t>Types</t>
-  </si>
-  <si>
     <t>Ver ejemplo abajo</t>
   </si>
   <si>
@@ -136,9 +124,6 @@
     <t>CORE</t>
   </si>
   <si>
-    <t>Aula</t>
-  </si>
-  <si>
     <t>Auditorio</t>
   </si>
   <si>
@@ -169,38 +154,134 @@
     <t>XL</t>
   </si>
   <si>
-    <t>facultyId</t>
-  </si>
-  <si>
-    <t>01JA48R4C0A1B2C3D4E5F6G7H8</t>
-  </si>
-  <si>
     <t>Solo puedes poner el types de color rojo de la tabla de abajo.</t>
   </si>
   <si>
     <t>Estos son los formatos permitidos, están en el mantenedor de Sizes.</t>
   </si>
   <si>
-    <t>Este formato de id viene como ULID.</t>
-  </si>
-  <si>
-    <t>CC205</t>
-  </si>
-  <si>
-    <t>Id generado por omega.</t>
-  </si>
-  <si>
     <t>AUDITORIO</t>
   </si>
   <si>
-    <t>Solo el SpaceType typo ROOM se podrá poner un SpaceSize juntos, sino solo uno a la vez.</t>
+    <t>Restricctiones</t>
+  </si>
+  <si>
+    <t>STUDY_ROOM</t>
+  </si>
+  <si>
+    <t>MEETING_ROOM</t>
+  </si>
+  <si>
+    <t>POSTGRADUATE_ROOM</t>
+  </si>
+  <si>
+    <t>MULTIPURPOSE</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Sala Core</t>
+  </si>
+  <si>
+    <t>Sala Reuniones</t>
+  </si>
+  <si>
+    <t>Sala Postgrado</t>
+  </si>
+  <si>
+    <t>Multiuso</t>
+  </si>
+  <si>
+    <t>Tipos</t>
+  </si>
+  <si>
+    <t>Tamaños</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>XE</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>01K6KB73TY2KHDWA8EQDD4SSPE</t>
+  </si>
+  <si>
+    <t>Id tipo ULID, generado auto. para asignar un grado</t>
+  </si>
+  <si>
+    <t>catedra</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>taller</t>
+  </si>
+  <si>
+    <t>ayudantia</t>
+  </si>
+  <si>
+    <t>laboratorio</t>
+  </si>
+  <si>
+    <t>N° por defecto para las ofertas. Al menos una debe ser mayor a 0</t>
+  </si>
+  <si>
+    <t>&lt; 30</t>
+  </si>
+  <si>
+    <t>30 - 39</t>
+  </si>
+  <si>
+    <t>40 - 49</t>
+  </si>
+  <si>
+    <t>50 - 59</t>
+  </si>
+  <si>
+    <t>60 - 69</t>
+  </si>
+  <si>
+    <t>&gt; 70</t>
+  </si>
+  <si>
+    <t>No configurado</t>
+  </si>
+  <si>
+    <t>01K867WJJP9YSDC5Q74W8NBJMZ</t>
+  </si>
+  <si>
+    <t>Detalles, se pueden modificar en admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,13 +311,28 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFA699DB"/>
-      <name val="Cascadia Code"/>
-      <family val="3"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -295,21 +391,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -322,18 +407,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,11 +425,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,109 +724,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -742,235 +883,391 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF34D623-D266-4933-848D-DBE9AF0CB296}">
-  <dimension ref="A3:H20"/>
+  <dimension ref="B4:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
-    <col min="7" max="7" width="80.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="69.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="H7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="H8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="H9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="H10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="H11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="H12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="H13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="4:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="4:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="4:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="6"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/plantilla_asignatura.xlsx
+++ b/public/plantilla_asignatura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FacultySystem-Front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E99AB63-AAC1-400F-97B5-ED4618493E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C78DDB6-F424-4111-9982-433063628051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="3585" windowWidth="25035" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="4335" windowWidth="24900" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -275,13 +275,19 @@
   </si>
   <si>
     <t>Detalles, se pueden modificar en admin</t>
+  </si>
+  <si>
+    <t>cupo</t>
+  </si>
+  <si>
+    <t>El cupo mínimo es 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +338,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -407,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -444,6 +458,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,11 +751,12 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,19 +773,22 @@
         <v>65</v>
       </c>
       <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -783,19 +802,22 @@
         <v>81</v>
       </c>
       <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -809,10 +831,10 @@
         <v>81</v>
       </c>
       <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -820,8 +842,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -835,19 +860,22 @@
         <v>81</v>
       </c>
       <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -864,17 +892,23 @@
         <v>81</v>
       </c>
       <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
         <v>5</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -886,7 +920,7 @@
   <dimension ref="B4:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,6 +1212,19 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="H14" s="15" t="s">
         <v>47</v>
       </c>
